--- a/data/pop_recife_v1.xlsx
+++ b/data/pop_recife_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">RECIFE</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">GOIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALMARES</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,6 +113,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -159,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,6 +178,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,13 +202,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.84"/>
@@ -264,6 +277,9 @@
       <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -325,6 +341,9 @@
       </c>
       <c r="T2" s="0" t="n">
         <v>79758</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>63250</v>
       </c>
     </row>
   </sheetData>

--- a/data/pop_recife_v1.xlsx
+++ b/data/pop_recife_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">RECIFE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">PALMARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORITAMA</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,11 +122,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,10 +176,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,13 +196,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.84"/>
@@ -277,8 +271,11 @@
       <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,6 +341,9 @@
       </c>
       <c r="U2" s="0" t="n">
         <v>63250</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>45219</v>
       </c>
     </row>
   </sheetData>

--- a/data/pop_recife_v1.xlsx
+++ b/data/pop_recife_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">RECIFE</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">TORITAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEZERROS</t>
   </si>
 </sst>
 </file>
@@ -192,17 +195,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+      <selection pane="topLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.84"/>
@@ -277,6 +280,9 @@
       <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -344,6 +350,9 @@
       </c>
       <c r="V2" s="0" t="n">
         <v>45219</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>60798</v>
       </c>
     </row>
   </sheetData>
